--- a/CG - Final Assignment - Evaluation Form.xlsx
+++ b/CG - Final Assignment - Evaluation Form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\School\CG CPP\CG - Lecture 8 - 0 - Skeleton start\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F7C721-D248-4498-8310-1C4C85C551B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04AB588-2CFD-4385-9C61-CD257B76F71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,9 +347,6 @@
     <t>A single designed object file for the pillars</t>
   </si>
   <si>
-    <t>Several textures implemented for many meshes (5+) and the ability to easily add textures to a model in the construction of a mesh or when calling .SetTexture</t>
-  </si>
-  <si>
     <t>2 unique animations defined for the rotation of showcase items (Rotating around a single axis, rotating around multiple axi)</t>
   </si>
   <si>
@@ -372,6 +369,9 @@
   </si>
   <si>
     <t>Several kinds of fragment shading defined using the Material class, several fragmentshaders used for imported models and primitive meshes, the floor reflects which can be seen when looking down</t>
+  </si>
+  <si>
+    <t>Several textures implemented for many meshes (5+) and the ability to easily add textures to a model in the construction of an obj or when calling .SetTexture</t>
   </si>
 </sst>
 </file>
@@ -1369,8 +1369,8 @@
   </sheetPr>
   <dimension ref="B2:M37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1624,7 +1624,7 @@
         <v>55</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="57.6" x14ac:dyDescent="0.3">
@@ -1646,7 +1646,7 @@
         <v>56</v>
       </c>
       <c r="M24" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="86.4" x14ac:dyDescent="0.3">
@@ -1668,7 +1668,7 @@
         <v>77</v>
       </c>
       <c r="M25" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
@@ -1690,7 +1690,7 @@
         <v>88</v>
       </c>
       <c r="M26" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="K27" s="50"/>
       <c r="M27" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1759,7 +1759,7 @@
         <v>45</v>
       </c>
       <c r="M30" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1781,7 +1781,7 @@
         <v>42</v>
       </c>
       <c r="M31" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="K35" s="41"/>
       <c r="M35" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1868,7 +1868,7 @@
         <v>69</v>
       </c>
       <c r="M36" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">

--- a/CG - Final Assignment - Evaluation Form.xlsx
+++ b/CG - Final Assignment - Evaluation Form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\School\CG CPP\CG - Lecture 8 - 0 - Skeleton start\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04AB588-2CFD-4385-9C61-CD257B76F71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D6F75D-73E2-4879-994C-1F9BA5BEC161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,9 +359,6 @@
     <t>Use of object oriented principles, as well as functional programming to add animations to meshes (See the MainScene class) As well as taking performance in account in some places in code (Reusing VAO in primitive meshes, only assigning the uniform projection once)</t>
   </si>
   <si>
-    <t>Consistent naming, added comments to code to explain what the code does</t>
-  </si>
-  <si>
     <t>Textures from https://www.textures.com/</t>
   </si>
   <si>
@@ -371,7 +368,10 @@
     <t>Several kinds of fragment shading defined using the Material class, several fragmentshaders used for imported models and primitive meshes, the floor reflects which can be seen when looking down</t>
   </si>
   <si>
-    <t>Several textures implemented for many meshes (5+) and the ability to easily add textures to a model in the construction of an obj or when calling .SetTexture</t>
+    <t>Several textures implemented for many meshes (5+) (Pillars under meshes, pillars in corners of the room, floor, walls) and the ability to easily add textures to a model in the construction of an obj or when calling .SetTexture</t>
+  </si>
+  <si>
+    <t>Consistent naming based on concepts used, added comments to code to explain what the code does (In header files)</t>
   </si>
 </sst>
 </file>
@@ -1369,8 +1369,8 @@
   </sheetPr>
   <dimension ref="B2:M37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1605,7 +1605,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C23" s="4" t="s">
         <v>51</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>55</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="57.6" x14ac:dyDescent="0.3">
@@ -1668,7 +1668,7 @@
         <v>77</v>
       </c>
       <c r="M25" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
@@ -1781,7 +1781,7 @@
         <v>42</v>
       </c>
       <c r="M31" s="29" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="K35" s="41"/>
       <c r="M35" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1868,7 +1868,7 @@
         <v>69</v>
       </c>
       <c r="M36" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
@@ -1997,12 +1997,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <SharedWithUsers xmlns="7178be8b-d0ef-4995-97d9-396f4bad9a56">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2252,26 +2260,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <SharedWithUsers xmlns="7178be8b-d0ef-4995-97d9-396f4bad9a56">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95702B07-5163-4733-93F0-15C1454EB37E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{704D0896-41A1-4D8E-B2B4-DAF4537F2CEF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2297,19 +2307,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{704D0896-41A1-4D8E-B2B4-DAF4537F2CEF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95702B07-5163-4733-93F0-15C1454EB37E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CG - Final Assignment - Evaluation Form.xlsx
+++ b/CG - Final Assignment - Evaluation Form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\School\CG CPP\CG - Lecture 8 - 0 - Skeleton start\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D6F75D-73E2-4879-994C-1F9BA5BEC161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDED31C-F0F6-4489-B0D5-345CBE3F79AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="115">
   <si>
     <t>Knock-out criteria</t>
   </si>
@@ -372,6 +372,12 @@
   </si>
   <si>
     <t>Consistent naming based on concepts used, added comments to code to explain what the code does (In header files)</t>
+  </si>
+  <si>
+    <t>GPb</t>
+  </si>
+  <si>
+    <t>Note: Commented print from texture and model loaders to remove time spent on the I/O for console. In addition, glsl::readFile was rewritten to not leak memory so that a release build could be made. See OpenGL Final.exe for the compiled executable</t>
   </si>
 </sst>
 </file>
@@ -1369,8 +1375,8 @@
   </sheetPr>
   <dimension ref="B2:M37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1425,7 +1431,9 @@
       <c r="C6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="38"/>
+      <c r="E6" s="38" t="s">
+        <v>113</v>
+      </c>
       <c r="F6" s="39"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
@@ -1499,7 +1507,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" ht="100.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1510,7 +1518,9 @@
       <c r="F17" s="44"/>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
-      <c r="M17" s="30"/>
+      <c r="M17" s="30" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="19" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
@@ -1561,7 +1571,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="4" t="s">
         <v>80</v>
       </c>
